--- a/Intern Project/TN District Economy Analysis/Tamilnadu_2011.xlsx
+++ b/Intern Project/TN District Economy Analysis/Tamilnadu_2011.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="135" windowWidth="11100" windowHeight="10065"/>
+    <workbookView xWindow="165" yWindow="135" windowWidth="11100" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ34"/>
+  <dimension ref="A1:CJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8444,268 +8444,268 @@
     </row>
     <row r="30" spans="1:88">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C30">
-        <v>375873</v>
+        <v>712210</v>
       </c>
       <c r="D30">
-        <v>1506843</v>
+        <v>2479052</v>
       </c>
       <c r="E30">
-        <v>774303</v>
+        <v>1246159</v>
       </c>
       <c r="F30">
-        <v>732540</v>
+        <v>1232893</v>
       </c>
       <c r="G30">
-        <v>167940</v>
+        <v>241351</v>
       </c>
       <c r="H30">
-        <v>87777</v>
+        <v>123612</v>
       </c>
       <c r="I30">
-        <v>80163</v>
+        <v>117739</v>
       </c>
       <c r="J30">
-        <v>245392</v>
+        <v>395876</v>
       </c>
       <c r="K30">
-        <v>124706</v>
+        <v>196907</v>
       </c>
       <c r="L30">
-        <v>120686</v>
+        <v>198969</v>
       </c>
       <c r="M30">
-        <v>63044</v>
+        <v>5458</v>
       </c>
       <c r="N30">
-        <v>32130</v>
+        <v>2740</v>
       </c>
       <c r="O30">
-        <v>30914</v>
+        <v>2718</v>
       </c>
       <c r="P30">
-        <v>917709</v>
+        <v>1760566</v>
       </c>
       <c r="Q30">
-        <v>527599</v>
+        <v>959623</v>
       </c>
       <c r="R30">
-        <v>390110</v>
+        <v>800943</v>
       </c>
       <c r="S30">
-        <v>589134</v>
+        <v>718486</v>
       </c>
       <c r="T30">
-        <v>246704</v>
+        <v>286536</v>
       </c>
       <c r="U30">
-        <v>342430</v>
+        <v>431950</v>
       </c>
       <c r="V30">
-        <v>751170</v>
+        <v>1266137</v>
       </c>
       <c r="W30">
-        <v>446057</v>
+        <v>819783</v>
       </c>
       <c r="X30">
-        <v>305113</v>
+        <v>446354</v>
       </c>
       <c r="Y30">
-        <v>652996</v>
+        <v>1168596</v>
       </c>
       <c r="Z30">
-        <v>400551</v>
+        <v>772253</v>
       </c>
       <c r="AA30">
-        <v>252445</v>
+        <v>396343</v>
       </c>
       <c r="AB30">
-        <v>191080</v>
+        <v>130331</v>
       </c>
       <c r="AC30">
-        <v>110977</v>
+        <v>79024</v>
       </c>
       <c r="AD30">
-        <v>80103</v>
+        <v>51307</v>
       </c>
       <c r="AE30">
-        <v>217062</v>
+        <v>216945</v>
       </c>
       <c r="AF30">
-        <v>103784</v>
+        <v>107791</v>
       </c>
       <c r="AG30">
-        <v>113278</v>
+        <v>109154</v>
       </c>
       <c r="AH30">
-        <v>11308</v>
+        <v>36139</v>
       </c>
       <c r="AI30">
-        <v>5373</v>
+        <v>20250</v>
       </c>
       <c r="AJ30">
-        <v>5935</v>
+        <v>15889</v>
       </c>
       <c r="AK30">
-        <v>233546</v>
+        <v>785181</v>
       </c>
       <c r="AL30">
-        <v>180417</v>
+        <v>565188</v>
       </c>
       <c r="AM30">
-        <v>53129</v>
+        <v>219993</v>
       </c>
       <c r="AN30">
-        <v>98174</v>
+        <v>97541</v>
       </c>
       <c r="AO30">
-        <v>45506</v>
+        <v>47530</v>
       </c>
       <c r="AP30">
-        <v>52668</v>
+        <v>50011</v>
       </c>
       <c r="AQ30">
-        <v>10248</v>
+        <v>5486</v>
       </c>
       <c r="AR30">
-        <v>4962</v>
+        <v>2632</v>
       </c>
       <c r="AS30">
-        <v>5286</v>
+        <v>2854</v>
       </c>
       <c r="AT30">
-        <v>50283</v>
+        <v>29388</v>
       </c>
       <c r="AU30">
-        <v>19241</v>
+        <v>12277</v>
       </c>
       <c r="AV30">
-        <v>31042</v>
+        <v>17111</v>
       </c>
       <c r="AW30">
-        <v>4033</v>
+        <v>4849</v>
       </c>
       <c r="AX30">
-        <v>1148</v>
+        <v>1338</v>
       </c>
       <c r="AY30">
-        <v>2885</v>
+        <v>3511</v>
       </c>
       <c r="AZ30">
-        <v>33610</v>
+        <v>57818</v>
       </c>
       <c r="BA30">
-        <v>20155</v>
+        <v>31283</v>
       </c>
       <c r="BB30">
-        <v>13455</v>
+        <v>26535</v>
       </c>
       <c r="BC30">
-        <v>82293</v>
+        <v>85052</v>
       </c>
       <c r="BD30">
-        <v>38988</v>
+        <v>42057</v>
       </c>
       <c r="BE30">
-        <v>43305</v>
+        <v>42995</v>
       </c>
       <c r="BF30">
-        <v>8901</v>
+        <v>5061</v>
       </c>
       <c r="BG30">
-        <v>4399</v>
+        <v>2489</v>
       </c>
       <c r="BH30">
-        <v>4502</v>
+        <v>2572</v>
       </c>
       <c r="BI30">
-        <v>43127</v>
+        <v>26144</v>
       </c>
       <c r="BJ30">
-        <v>17010</v>
+        <v>11057</v>
       </c>
       <c r="BK30">
-        <v>26117</v>
+        <v>15087</v>
       </c>
       <c r="BL30">
-        <v>2881</v>
+        <v>3805</v>
       </c>
       <c r="BM30">
-        <v>890</v>
+        <v>1100</v>
       </c>
       <c r="BN30">
-        <v>1991</v>
+        <v>2705</v>
       </c>
       <c r="BO30">
-        <v>27384</v>
+        <v>50042</v>
       </c>
       <c r="BP30">
-        <v>16689</v>
+        <v>27411</v>
       </c>
       <c r="BQ30">
-        <v>10695</v>
+        <v>22631</v>
       </c>
       <c r="BR30">
-        <v>15881</v>
+        <v>12489</v>
       </c>
       <c r="BS30">
-        <v>6518</v>
+        <v>5473</v>
       </c>
       <c r="BT30">
-        <v>9363</v>
+        <v>7016</v>
       </c>
       <c r="BU30">
-        <v>1347</v>
+        <v>425</v>
       </c>
       <c r="BV30">
-        <v>563</v>
+        <v>143</v>
       </c>
       <c r="BW30">
-        <v>784</v>
+        <v>282</v>
       </c>
       <c r="BX30">
-        <v>7156</v>
+        <v>3244</v>
       </c>
       <c r="BY30">
-        <v>2231</v>
+        <v>1220</v>
       </c>
       <c r="BZ30">
-        <v>4925</v>
+        <v>2024</v>
       </c>
       <c r="CA30">
-        <v>1152</v>
+        <v>1044</v>
       </c>
       <c r="CB30">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="CC30">
-        <v>894</v>
+        <v>806</v>
       </c>
       <c r="CD30">
-        <v>6226</v>
+        <v>7776</v>
       </c>
       <c r="CE30">
-        <v>3466</v>
+        <v>3872</v>
       </c>
       <c r="CF30">
-        <v>2760</v>
+        <v>3904</v>
       </c>
       <c r="CG30">
-        <v>755673</v>
+        <v>1212915</v>
       </c>
       <c r="CH30">
-        <v>328246</v>
+        <v>426376</v>
       </c>
       <c r="CI30">
-        <v>427427</v>
+        <v>786539</v>
       </c>
       <c r="CJ30">
-        <v>-0.71814722805781805</v>
+        <v>0.215570756286902</v>
       </c>
     </row>
     <row r="31" spans="1:88">
@@ -9242,273 +9242,269 @@
     </row>
     <row r="33" spans="1:88">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C33">
-        <v>712210</v>
+        <v>375873</v>
       </c>
       <c r="D33">
-        <v>2479052</v>
+        <v>1506843</v>
       </c>
       <c r="E33">
-        <v>1246159</v>
+        <v>774303</v>
       </c>
       <c r="F33">
-        <v>1232893</v>
+        <v>732540</v>
       </c>
       <c r="G33">
-        <v>241351</v>
+        <v>167940</v>
       </c>
       <c r="H33">
-        <v>123612</v>
+        <v>87777</v>
       </c>
       <c r="I33">
-        <v>117739</v>
+        <v>80163</v>
       </c>
       <c r="J33">
-        <v>395876</v>
+        <v>245392</v>
       </c>
       <c r="K33">
-        <v>196907</v>
+        <v>124706</v>
       </c>
       <c r="L33">
-        <v>198969</v>
+        <v>120686</v>
       </c>
       <c r="M33">
-        <v>5458</v>
+        <v>63044</v>
       </c>
       <c r="N33">
-        <v>2740</v>
+        <v>32130</v>
       </c>
       <c r="O33">
-        <v>2718</v>
+        <v>30914</v>
       </c>
       <c r="P33">
-        <v>1760566</v>
+        <v>917709</v>
       </c>
       <c r="Q33">
-        <v>959623</v>
+        <v>527599</v>
       </c>
       <c r="R33">
-        <v>800943</v>
+        <v>390110</v>
       </c>
       <c r="S33">
-        <v>718486</v>
+        <v>589134</v>
       </c>
       <c r="T33">
-        <v>286536</v>
+        <v>246704</v>
       </c>
       <c r="U33">
-        <v>431950</v>
+        <v>342430</v>
       </c>
       <c r="V33">
-        <v>1266137</v>
+        <v>751170</v>
       </c>
       <c r="W33">
-        <v>819783</v>
+        <v>446057</v>
       </c>
       <c r="X33">
-        <v>446354</v>
+        <v>305113</v>
       </c>
       <c r="Y33">
-        <v>1168596</v>
+        <v>652996</v>
       </c>
       <c r="Z33">
-        <v>772253</v>
+        <v>400551</v>
       </c>
       <c r="AA33">
-        <v>396343</v>
+        <v>252445</v>
       </c>
       <c r="AB33">
-        <v>130331</v>
+        <v>191080</v>
       </c>
       <c r="AC33">
-        <v>79024</v>
+        <v>110977</v>
       </c>
       <c r="AD33">
-        <v>51307</v>
+        <v>80103</v>
       </c>
       <c r="AE33">
-        <v>216945</v>
+        <v>217062</v>
       </c>
       <c r="AF33">
-        <v>107791</v>
+        <v>103784</v>
       </c>
       <c r="AG33">
-        <v>109154</v>
+        <v>113278</v>
       </c>
       <c r="AH33">
-        <v>36139</v>
+        <v>11308</v>
       </c>
       <c r="AI33">
-        <v>20250</v>
+        <v>5373</v>
       </c>
       <c r="AJ33">
-        <v>15889</v>
+        <v>5935</v>
       </c>
       <c r="AK33">
-        <v>785181</v>
+        <v>233546</v>
       </c>
       <c r="AL33">
-        <v>565188</v>
+        <v>180417</v>
       </c>
       <c r="AM33">
-        <v>219993</v>
+        <v>53129</v>
       </c>
       <c r="AN33">
-        <v>97541</v>
+        <v>98174</v>
       </c>
       <c r="AO33">
-        <v>47530</v>
+        <v>45506</v>
       </c>
       <c r="AP33">
-        <v>50011</v>
+        <v>52668</v>
       </c>
       <c r="AQ33">
-        <v>5486</v>
+        <v>10248</v>
       </c>
       <c r="AR33">
-        <v>2632</v>
+        <v>4962</v>
       </c>
       <c r="AS33">
-        <v>2854</v>
+        <v>5286</v>
       </c>
       <c r="AT33">
-        <v>29388</v>
+        <v>50283</v>
       </c>
       <c r="AU33">
-        <v>12277</v>
+        <v>19241</v>
       </c>
       <c r="AV33">
-        <v>17111</v>
+        <v>31042</v>
       </c>
       <c r="AW33">
-        <v>4849</v>
+        <v>4033</v>
       </c>
       <c r="AX33">
-        <v>1338</v>
+        <v>1148</v>
       </c>
       <c r="AY33">
-        <v>3511</v>
+        <v>2885</v>
       </c>
       <c r="AZ33">
-        <v>57818</v>
+        <v>33610</v>
       </c>
       <c r="BA33">
-        <v>31283</v>
+        <v>20155</v>
       </c>
       <c r="BB33">
-        <v>26535</v>
+        <v>13455</v>
       </c>
       <c r="BC33">
-        <v>85052</v>
+        <v>82293</v>
       </c>
       <c r="BD33">
-        <v>42057</v>
+        <v>38988</v>
       </c>
       <c r="BE33">
-        <v>42995</v>
+        <v>43305</v>
       </c>
       <c r="BF33">
-        <v>5061</v>
+        <v>8901</v>
       </c>
       <c r="BG33">
-        <v>2489</v>
+        <v>4399</v>
       </c>
       <c r="BH33">
-        <v>2572</v>
+        <v>4502</v>
       </c>
       <c r="BI33">
-        <v>26144</v>
+        <v>43127</v>
       </c>
       <c r="BJ33">
-        <v>11057</v>
+        <v>17010</v>
       </c>
       <c r="BK33">
-        <v>15087</v>
+        <v>26117</v>
       </c>
       <c r="BL33">
-        <v>3805</v>
+        <v>2881</v>
       </c>
       <c r="BM33">
-        <v>1100</v>
+        <v>890</v>
       </c>
       <c r="BN33">
-        <v>2705</v>
+        <v>1991</v>
       </c>
       <c r="BO33">
-        <v>50042</v>
+        <v>27384</v>
       </c>
       <c r="BP33">
-        <v>27411</v>
+        <v>16689</v>
       </c>
       <c r="BQ33">
-        <v>22631</v>
+        <v>10695</v>
       </c>
       <c r="BR33">
-        <v>12489</v>
+        <v>15881</v>
       </c>
       <c r="BS33">
-        <v>5473</v>
+        <v>6518</v>
       </c>
       <c r="BT33">
-        <v>7016</v>
+        <v>9363</v>
       </c>
       <c r="BU33">
-        <v>425</v>
+        <v>1347</v>
       </c>
       <c r="BV33">
-        <v>143</v>
+        <v>563</v>
       </c>
       <c r="BW33">
-        <v>282</v>
+        <v>784</v>
       </c>
       <c r="BX33">
-        <v>3244</v>
+        <v>7156</v>
       </c>
       <c r="BY33">
-        <v>1220</v>
+        <v>2231</v>
       </c>
       <c r="BZ33">
-        <v>2024</v>
+        <v>4925</v>
       </c>
       <c r="CA33">
-        <v>1044</v>
+        <v>1152</v>
       </c>
       <c r="CB33">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="CC33">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="CD33">
-        <v>7776</v>
+        <v>6226</v>
       </c>
       <c r="CE33">
-        <v>3872</v>
+        <v>3466</v>
       </c>
       <c r="CF33">
-        <v>3904</v>
+        <v>2760</v>
       </c>
       <c r="CG33">
-        <v>1212915</v>
+        <v>755673</v>
       </c>
       <c r="CH33">
-        <v>426376</v>
+        <v>328246</v>
       </c>
       <c r="CI33">
-        <v>786539</v>
+        <v>427427</v>
       </c>
       <c r="CJ33">
-        <v>0.215570756286902</v>
-      </c>
-    </row>
-    <row r="34" spans="1:88">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+        <v>-0.71814722805781805</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
